--- a/E-Learning content on skill employee control process flow.xlsx
+++ b/E-Learning content on skill employee control process flow.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/335a723bf2395d2e/Desktop/Edvantech soln/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/335a723bf2395d2e/Desktop/PRoject done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{4399C706-AE05-4FD5-A706-BC133A0CE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F784F8D-F210-4366-8F44-0DA5D90FE100}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="8_{4399C706-AE05-4FD5-A706-BC133A0CE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54B1F84-C9E8-49FC-9F1A-F6EBF97FBBA2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BDE9B2D-8015-4701-B08C-E6FF8FC93AC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="tranter" sheetId="1" r:id="rId1"/>
+    <sheet name="Education class" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc133449782" localSheetId="0">tranter!$B$14</definedName>
-    <definedName name="_Toc133449784" localSheetId="0">tranter!$B$19</definedName>
-    <definedName name="_Toc133449786" localSheetId="0">tranter!$B$23</definedName>
+    <definedName name="_Toc133449782" localSheetId="0">'Education class'!$B$14</definedName>
+    <definedName name="_Toc133449784" localSheetId="0">'Education class'!$B$19</definedName>
+    <definedName name="_Toc133449786" localSheetId="0">'Education class'!$B$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,10 +427,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFACCEC-6E30-4565-AEAC-914CEEFDE048}">
   <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
